--- a/assets/files/CV6.xlsx
+++ b/assets/files/CV6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1997 +626,1997 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>24.120603015075378</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>58.291457286432163</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>12.060301507537689</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>5.025125628140704</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>0.50251256281407031</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>25.531914893617021</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>55.851063829787236</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>14.361702127659575</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>4.2553191489361701</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>188</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>24.806201550387598</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>57.105943152454778</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>13.178294573643411</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.25839793281653745</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>48.79032258064516</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>20.967741935483872</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>25.403225806451612</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>26.229508196721312</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>27.049180327868854</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>22.131147540983605</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>22.950819672131146</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>122</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>41.351351351351354</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>22.972972972972972</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>10.54054054054054</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>24.594594594594593</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.54054054054054057</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>14.253897550111359</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>34.521158129175944</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>32.962138084632514</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>13.808463251670378</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>4.4543429844097995</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>449</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>19.502074688796682</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>40.663900414937757</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>27.385892116182571</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>12.448132780082988</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>241</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>16.086956521739129</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>36.666666666666664</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>31.014492753623188</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>2.8985507246376812</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>13.924050632911392</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>72.151898734177209</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>13.924050632911392</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>10.791366906474821</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>71.223021582733807</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>13.669064748201439</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>3.9568345323741005</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.35971223021582732</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>11.484593837535014</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>71.428571428571431</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>13.725490196078431</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>3.081232492997199</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>33.888888888888886</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>39.444444444444443</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>4.4444444444444446</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>180</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>16.513761467889907</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>33.027522935779814</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>41.284403669724767</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>2.7522935779816513</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6.4220183486238529</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>109</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>16.608996539792386</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>33.564013840830448</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>40.13840830449827</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>4.4982698961937713</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>5.1903114186851207</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>29.743589743589745</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>41.53846153846154</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>14.358974358974359</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>26.760563380281692</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>43.661971830985912</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>11.267605633802816</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>17.370892018779344</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>28.186274509803923</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>42.647058823529413</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>11.519607843137255</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>15.931372549019608</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>1.7156862745098038</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>16.279069767441861</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>51.162790697674417</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>25.581395348837209</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>6.9767441860465116</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>16.513761467889907</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>48.01223241590214</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>29.357798165137616</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.81039755351682</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.3058103975535168</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>16.486486486486488</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>48.378378378378379</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>28.918918918918919</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>5.9459459459459456</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>0.27027027027027029</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>19.183673469387756</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>48.571428571428569</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>11.836734693877551</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>18.775510204081634</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>1.6326530612244898</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>245</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>20.863309352517987</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>53.237410071942449</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>16.546762589928058</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>9.3525179856115113</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>19.791666666666668</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>50.260416666666664</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>13.541666666666666</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>15.364583333333334</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.0416666666666667</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>27.586206896551722</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>58.620689655172413</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>8.0459770114942533</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>24.199288256227756</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>50.889679715302492</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>12.455516014234876</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>10.320284697508896</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>2.1352313167259784</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>25</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>52.717391304347828</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>10.326086956521738</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>9.7826086956521738</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>40.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>17</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>29.5</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>34.444444444444443</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>57.222222222222221</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>10</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>37.631578947368418</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>36.05263157894737</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>16.315789473684209</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>52.654867256637168</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>7.9646017699115044</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>38.938053097345133</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>51.948051948051948</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>37.012987012987011</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>6.4935064935064934</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>52.368421052631582</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>19.736842105263158</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>2.1052631578947367</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>25.789473684210527</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>19.130434782608695</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>44.782608695652172</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>15.652173913043478</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>12.608695652173912</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>7.8260869565217392</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>230</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>22.727272727272727</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>39.090909090909093</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>28.181818181818183</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>8.1818181818181817</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>1.8181818181818181</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>110</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>20.294117647058822</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>42.941176470588232</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>19.705882352941178</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>11.176470588235293</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>13.008130081300813</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>43.902439024390247</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>26.829268292682926</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>13.821138211382113</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>2.4390243902439024</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>16.46586345381526</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>52.208835341365464</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>12.449799196787149</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>17.670682730923694</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>1.2048192771084338</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>249</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>15.32258064516129</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>49.462365591397848</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>17.204301075268816</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>16.397849462365592</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>29.166666666666668</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>56.25</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>33.233532934131738</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>54.790419161676645</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>10.179640718562874</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>1.1976047904191616</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.59880239520958078</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>32.722513089005233</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>54.973821989528794</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>9.4240837696335085</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>1.0471204188481675</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>1.8324607329842932</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>20.134228187919462</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>53.691275167785236</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>15.436241610738255</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>8.053691275167786</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>2.6845637583892619</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>149</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>6.3829787234042552</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>40</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>53.191489361702125</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>0.42553191489361702</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>235</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>11.71875</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>45.3125</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>38.541666666666664</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>3.125</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>1.3020833333333333</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>41.842105263157897</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>37.631578947368418</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>7.3684210526315788</v>
       </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>41.842105263157897</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>37.631578947368418</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>7.3684210526315788</v>
       </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>39.473684210526315</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>28.94736842105263</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>18.421052631578949</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>38.34808259587021</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>3.2448377581120944</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>23.893805309734514</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.1799410029498525</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>339</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>38.46153846153846</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>32.891246684350129</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>3.7135278514588861</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>23.342175066312997</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1.5915119363395225</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>35.057471264367813</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>44.252873563218394</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>14.367816091954023</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>2.8735632183908044</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>12.087912087912088</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>55.494505494505496</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>30.219780219780219</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>2.197802197802198</v>
       </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>182</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>23.314606741573034</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>50</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>22.471910112359552</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>2.808988764044944</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.404494382022472</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>45.161290322580648</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>31</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>43.324250681198912</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>33.242506811989102</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5.4495912806539506</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>16.348773841961854</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.6348773841961852</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>367</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>43.467336683417088</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>31.909547738693469</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>6.2814070351758797</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>16.834170854271356</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>12.871287128712872</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>51.980198019801982</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>26.732673267326732</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>7.4257425742574261</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>0.99009900990099009</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>202</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>18.333333333333332</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>51.666666666666664</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>24.444444444444443</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>15.445026178010471</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>51.832460732984295</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>25.654450261780106</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>6.2827225130890056</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>0.78534031413612571</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>9.2485549132947984</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>48.554913294797686</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>35.838150289017342</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>6.3583815028901736</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>13.658536585365853</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>53.658536585365852</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>20.975609756097562</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>10.731707317073171</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>0.97560975609756095</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>51.322751322751323</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>27.777777777777779</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>8.7301587301587293</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>0.52910052910052907</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>26.063829787234042</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>31.914893617021278</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>26.595744680851062</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>14.361702127659575</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>22.564102564102566</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>34.871794871794869</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>14.871794871794872</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>1.0256410256410255</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>24.281984334203656</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>33.420365535248045</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>26.631853785900784</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>14.621409921671018</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>1.0443864229765014</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>5.3291536050156738</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>4.0752351097178687</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
         <v>90.282131661442008</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.31347962382445144</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>38.70967741935484</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>38.70967741935484</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>6.4516129032258061</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>10.761154855643044</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>9.7112860892388451</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.0498687664041995</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>78.215223097112855</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>25.925925925925927</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>37.566137566137563</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>17.460317460317459</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>15.873015873015873</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>3.1746031746031744</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>189</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>16.145833333333332</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>48.4375</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>26.5625</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>20.99737532808399</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>43.044619422572175</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>22.047244094488189</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>12.073490813648293</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>18.086956521739129</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>62.086956521739133</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>15.304347826086957</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>2.6086956521739131</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.9130434782608696</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>575</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>21.391561806069578</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>45.003700962250186</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>26.202812731310139</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>5.1813471502590671</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>2.2205773501110291</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1351</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>20.404984423676012</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>50.10384215991693</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>22.949117341640704</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>4.413291796469367</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>2.1287642782969884</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1926</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>29.411764705882351</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>64.705882352941174</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>20.754716981132077</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>61.509433962264154</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>10.566037735849056</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>6.4150943396226419</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>0.75471698113207553</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>22.522522522522522</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>62.162162162162161</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>9.0090090090090094</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>5.7057057057057055</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>0.60060060060060061</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>666</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>22.727272727272727</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>34.090909090909093</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>15.151515151515152</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>0.75757575757575757</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>132</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>23.684210526315791</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>35.263157894736842</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>22.631578947368421</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>15.263157894736842</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>3.1578947368421053</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>23.29192546583851</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>34.782608695652172</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>24.534161490683228</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>15.217391304347826</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>34.061135371179041</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>41.921397379912662</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>11.353711790393014</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>11.353711790393014</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>1.3100436681222707</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>229</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>26.229508196721312</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>38.524590163934427</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>19.672131147540984</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>13.114754098360656</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>2.459016393442623</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>31.33903133903134</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>40.74074074074074</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>14.245014245014245</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>11.965811965811966</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>1.7094017094017093</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>32.026143790849673</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>25.490196078431371</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>15.686274509803921</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>24.836601307189543</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>153</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>28.448275862068964</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>43.96551724137931</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>14.655172413793103</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>2.5862068965517242</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>29.870129870129869</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>36.623376623376622</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>15.064935064935066</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>16.103896103896105</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>2.3376623376623376</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>18.018018018018019</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>54.954954954954957</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>19.81981981981982</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>7.2072072072072073</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>31.25</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>47.058823529411768</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>9.1911764705882355</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>10.294117647058824</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>2.2058823529411766</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>27.41514360313316</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>49.347258485639685</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>12.271540469973891</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>9.3994778067885125</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>1.566579634464752</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>46.666666666666664</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>16.897506925207757</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>43.21329639889197</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>32.963988919667592</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>5.8171745152354575</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>1.10803324099723</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>361</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>43.351063829787236</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>32.712765957446805</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>5.8510638297872344</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.0638297872340425</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>376</v>
       </c>
     </row>
